--- a/premise/data/additional_inventories/lci-BIGCC.xlsx
+++ b/premise/data/additional_inventories/lci-BIGCC.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DDC2A7-4373-3E49-BEB7-096D6C3B8FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -230,7 +241,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -565,20 +576,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.5546875" customWidth="1"/>
+    <col min="1" max="1" width="71.5" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -594,7 +605,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -602,7 +613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -610,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -618,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -626,7 +637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -634,7 +645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -642,7 +653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -650,12 +661,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -696,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -725,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -764,7 +775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -803,7 +814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -841,7 +852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -861,7 +872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -881,7 +892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -902,7 +913,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -923,7 +934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -941,7 +952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -959,7 +970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -977,7 +988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -995,7 +1006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1013,7 +1024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1031,7 +1042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1049,7 +1060,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1067,7 +1078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1088,7 +1099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
@@ -1096,7 +1107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1104,7 +1115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1112,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1136,7 +1147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1144,7 +1155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1152,12 +1163,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1198,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -1227,7 +1238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -1266,7 +1277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1305,7 +1316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -1343,7 +1354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -1363,7 +1374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -1383,7 +1394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -1404,7 +1415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1425,7 +1436,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -1443,7 +1454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -1461,7 +1472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -1479,7 +1490,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -1497,7 +1508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -1515,7 +1526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -1533,7 +1544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -1551,7 +1562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -1569,7 +1580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1590,7 +1601,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1611,7 +1622,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>1</v>
       </c>
@@ -1619,7 +1630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -1627,7 +1638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1643,7 +1654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1651,7 +1662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1659,7 +1670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -1667,7 +1678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -1675,12 +1686,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -1750,7 +1761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -1789,7 +1800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -1828,7 +1839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -1866,7 +1877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -1886,7 +1897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -1906,7 +1917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -1927,7 +1938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>55</v>
       </c>
@@ -1948,7 +1959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>46</v>
       </c>
@@ -1966,7 +1977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>48</v>
       </c>
@@ -1984,7 +1995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>49</v>
       </c>
@@ -2002,7 +2013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>50</v>
       </c>
@@ -2020,7 +2031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -2038,7 +2049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -2056,7 +2067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>53</v>
       </c>
@@ -2074,7 +2085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -2092,7 +2103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>56</v>
       </c>
@@ -2113,7 +2124,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>64</v>
       </c>

--- a/premise/data/additional_inventories/lci-BIGCC.xlsx
+++ b/premise/data/additional_inventories/lci-BIGCC.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DDC2A7-4373-3E49-BEB7-096D6C3B8FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EB23A4-4C9A-1541-9912-ABEDDD7FD8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -741,8 +741,8 @@
         <v>24</v>
       </c>
       <c r="B14" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -780,8 +780,8 @@
         <v>28</v>
       </c>
       <c r="B15" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -1243,8 +1243,8 @@
         <v>24</v>
       </c>
       <c r="B44" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -1282,8 +1282,8 @@
         <v>28</v>
       </c>
       <c r="B45" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -1766,8 +1766,8 @@
         <v>24</v>
       </c>
       <c r="B75" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1805,8 +1805,8 @@
         <v>28</v>
       </c>
       <c r="B76" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>

--- a/premise/data/additional_inventories/lci-BIGCC.xlsx
+++ b/premise/data/additional_inventories/lci-BIGCC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DDC2A7-4373-3E49-BEB7-096D6C3B8FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E60F4-8CFB-1341-AF28-F7A65899BFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -741,8 +741,8 @@
         <v>24</v>
       </c>
       <c r="B14" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -780,8 +780,8 @@
         <v>28</v>
       </c>
       <c r="B15" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -1243,8 +1243,8 @@
         <v>24</v>
       </c>
       <c r="B44" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -1282,8 +1282,8 @@
         <v>28</v>
       </c>
       <c r="B45" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -1766,8 +1766,8 @@
         <v>24</v>
       </c>
       <c r="B75" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1805,8 +1805,8 @@
         <v>28</v>
       </c>
       <c r="B76" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>

--- a/premise/data/additional_inventories/lci-BIGCC.xlsx
+++ b/premise/data/additional_inventories/lci-BIGCC.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E60F4-8CFB-1341-AF28-F7A65899BFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -230,7 +241,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -565,20 +576,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.5546875" customWidth="1"/>
+    <col min="1" max="1" width="71.5" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -594,7 +605,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -602,7 +613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -610,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -618,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -626,7 +637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -634,7 +645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -642,7 +653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -650,12 +661,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -696,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -725,13 +736,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -764,13 +775,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -803,7 +814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -841,7 +852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -861,7 +872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -881,7 +892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -902,7 +913,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -923,7 +934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -941,7 +952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -959,7 +970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -977,7 +988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -995,7 +1006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1013,7 +1024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1031,7 +1042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1049,7 +1060,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1067,7 +1078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1088,7 +1099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
@@ -1096,7 +1107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1104,7 +1115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1112,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1136,7 +1147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1144,7 +1155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1152,12 +1163,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1198,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -1227,13 +1238,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -1266,13 +1277,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>28</v>
       </c>
       <c r="B45" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -1305,7 +1316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -1343,7 +1354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -1363,7 +1374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -1383,7 +1394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -1404,7 +1415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1425,7 +1436,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -1443,7 +1454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -1461,7 +1472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -1479,7 +1490,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -1497,7 +1508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -1515,7 +1526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -1533,7 +1544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -1551,7 +1562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -1569,7 +1580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1590,7 +1601,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1611,7 +1622,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>1</v>
       </c>
@@ -1619,7 +1630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -1627,7 +1638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1643,7 +1654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1651,7 +1662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1659,7 +1670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -1667,7 +1678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -1675,12 +1686,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -1750,13 +1761,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>24</v>
       </c>
       <c r="B75" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1789,13 +1800,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>28</v>
       </c>
       <c r="B76" s="4">
-        <f>1/(12500*8760*25)</f>
-        <v>3.6529680365296802E-10</v>
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -1828,7 +1839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -1866,7 +1877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -1886,7 +1897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -1906,7 +1917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -1927,7 +1938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>55</v>
       </c>
@@ -1948,7 +1959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>46</v>
       </c>
@@ -1966,7 +1977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>48</v>
       </c>
@@ -1984,7 +1995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>49</v>
       </c>
@@ -2002,7 +2013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>50</v>
       </c>
@@ -2020,7 +2031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -2038,7 +2049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -2056,7 +2067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>53</v>
       </c>
@@ -2074,7 +2085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -2092,7 +2103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>56</v>
       </c>
@@ -2113,7 +2124,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>64</v>
       </c>

--- a/premise/data/additional_inventories/lci-BIGCC.xlsx
+++ b/premise/data/additional_inventories/lci-BIGCC.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EB23A4-4C9A-1541-9912-ABEDDD7FD8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E60F4-8CFB-1341-AF28-F7A65899BFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-BIGCC.xlsx
+++ b/premise/data/additional_inventories/lci-BIGCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E60F4-8CFB-1341-AF28-F7A65899BFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BE2B5A-9121-434D-8F54-8B5F31351747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35160" yWindow="1000" windowWidth="28240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1065,8 +1065,8 @@
         <v>54</v>
       </c>
       <c r="B28" s="5">
-        <f>0.49*(44/12)*B17</f>
-        <v>1.8451766666666665</v>
+        <f>1.81*B17</f>
+        <v>1.8588699999999998</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -1567,8 +1567,8 @@
         <v>54</v>
       </c>
       <c r="B58" s="5">
-        <f>0.49*(44/12)*B47*0.1</f>
-        <v>0.18451766666666666</v>
+        <f>1.81*B47*0.1</f>
+        <v>0.185887</v>
       </c>
       <c r="D58" t="s">
         <v>29</v>
@@ -1605,9 +1605,9 @@
       <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B60">
-        <f>0.9*1.96</f>
-        <v>1.764</v>
+      <c r="B60" s="5">
+        <f>1.81*B47*0.9</f>
+        <v>1.6729829999999999</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -2090,8 +2090,8 @@
         <v>54</v>
       </c>
       <c r="B89" s="5">
-        <f>0.49*(44/12)*B78*0.1</f>
-        <v>0.18451766666666666</v>
+        <f>1.81*B78*0.1</f>
+        <v>0.185887</v>
       </c>
       <c r="D89" t="s">
         <v>29</v>
@@ -2128,9 +2128,9 @@
       <c r="A91" t="s">
         <v>64</v>
       </c>
-      <c r="B91">
-        <f>0.9*1.96</f>
-        <v>1.764</v>
+      <c r="B91" s="5">
+        <f>1.81*B78*0.9</f>
+        <v>1.6729829999999999</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>

--- a/premise/data/additional_inventories/lci-BIGCC.xlsx
+++ b/premise/data/additional_inventories/lci-BIGCC.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BE2B5A-9121-434D-8F54-8B5F31351747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D010B3-D02D-5D42-9715-99BB5F4F3274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35160" yWindow="1000" windowWidth="28240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30160" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="61">
   <si>
     <t>Database</t>
   </si>
@@ -125,12 +125,6 @@
   </si>
   <si>
     <t>kilogram</t>
-  </si>
-  <si>
-    <t>Operation, H2 power plant 450MW, no CCS</t>
-  </si>
-  <si>
-    <t>Operation, H2 power plant 450MW, pre, pipeline 200km, storage 1000m</t>
   </si>
   <si>
     <t>integrated biomass gasification power</t>
@@ -210,15 +204,6 @@
   </si>
   <si>
     <t>inert waste</t>
-  </si>
-  <si>
-    <t>electricity production, at BIGCC power plant, no CCS</t>
-  </si>
-  <si>
-    <t>electricity production, at BIGCC power plant, pre, pipeline 200km, storage 1000m</t>
-  </si>
-  <si>
-    <t>electricity production, at BIGCC power plant, pre, pipeline 400km, storage 3000m</t>
   </si>
   <si>
     <t>The study is originally tailored to portuguese conditions, using Portugal-grown eucalyptus as biommas feedstock. The plant has a power output of 12.5 MW.
@@ -232,10 +217,13 @@
 All the inventory data regarding the RFB direct gasification process were obtained from experiments carried out in a pilot-scale gasification installation running at the University of Aveiro, Portugal (Pio et al., 2017). However, data are scaled up in order to obtain the same power output of the EG-CRC power plant. At the pilot scale, the RFB is introduced in the gasification chamber by means of a screw feeder and is converted at an average temperature of 785 °C in a bubbling fluidized bed reactor of 80 kWth, operated at atmospheric pressure and under auto-thermal regime, thus, direct gasification using atmospheric air.</t>
   </si>
   <si>
-    <t>CO2 capture/at wood burning power plant 20 MW, truck 25km, post, pipeline 200km, storage 1000m</t>
-  </si>
-  <si>
-    <t>CO2 capture/at wood burning power plant 20 MW, truck 25km, post, pipeline 400km, storage 3000m</t>
+    <t>carbon dioxide, captured at wood burning power plant 20 MW post, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>electricity production, at biomass-fired IGCC power plant</t>
+  </si>
+  <si>
+    <t>electricity production, at biomass-fired IGCC power plant, pre, pipeline 200km, storage 1000m</t>
   </si>
 </sst>
 </file>
@@ -294,9 +282,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -594,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -602,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -647,18 +635,18 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>61</v>
+      <c r="B10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -709,7 +697,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -740,7 +728,7 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <f>1/(450000*8760*25)</f>
         <v>1.0147133434804668E-11</v>
       </c>
@@ -779,7 +767,7 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <f>1/(450000*8760*25)</f>
         <v>1.0147133434804668E-11</v>
       </c>
@@ -816,92 +804,75 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <v>1.0269999999999999</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
       </c>
       <c r="M17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B18">
-        <v>3.0000000000000001E-3</v>
+        <f>20/1000</f>
+        <v>0.02</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
       </c>
       <c r="M18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B19">
-        <f>20/1000</f>
-        <v>0.02</v>
+        <f>8.12/1000</f>
+        <v>8.1199999999999987E-3</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
@@ -910,28 +881,25 @@
         <v>26</v>
       </c>
       <c r="M19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B20">
-        <f>8.12/1000</f>
-        <v>8.1199999999999987E-3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
+        <f>0.343/1000</f>
+        <v>3.4300000000000004E-4</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
       </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -939,1210 +907,631 @@
         <v>46</v>
       </c>
       <c r="B21">
-        <f>0.343/1000</f>
-        <v>3.4300000000000004E-4</v>
+        <f>0.0006/1000</f>
+        <v>5.9999999999999997E-7</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22">
-        <f>0.0006/1000</f>
-        <v>5.9999999999999997E-7</v>
+        <f>0.004/1000</f>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23">
-        <f>0.004/1000</f>
-        <v>3.9999999999999998E-6</v>
+        <f>7.182/1000</f>
+        <v>7.182E-3</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24">
-        <f>7.182/1000</f>
-        <v>7.182E-3</v>
+        <f>0.005/1000</f>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25">
-        <f>0.005/1000</f>
-        <v>5.0000000000000004E-6</v>
+        <f>0.16/1000</f>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26">
-        <f>0.16/1000</f>
-        <v>1.6000000000000001E-4</v>
+        <f>0.03/1000</f>
+        <v>2.9999999999999997E-5</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27">
-        <f>0.03/1000</f>
-        <v>2.9999999999999997E-5</v>
+        <v>52</v>
+      </c>
+      <c r="B27" s="4">
+        <f>1.81*B16</f>
+        <v>1.8588699999999998</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="5">
-        <f>1.81*B17</f>
-        <v>1.8588699999999998</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29">
+      <c r="B28">
         <f>(20+28.75+91.6)/1000*-1</f>
         <v>-0.14035</v>
       </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
         <v>26</v>
       </c>
-      <c r="M29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="M28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>59</v>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3">
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>-26.747253575759949</v>
+      </c>
+      <c r="I41">
+        <v>0.54930614433405478</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="B42" s="3">
+        <f>1/(450000*8760*25)</f>
+        <v>1.0147133434804668E-11</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>-26.747253575759949</v>
+      </c>
+      <c r="I42">
+        <v>0.54930614433405478</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43">
-        <v>100</v>
-      </c>
-      <c r="K43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M43" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="4">
-        <f>1/(450000*8760*25)</f>
-        <v>1.0147133434804668E-11</v>
+        <v>33</v>
+      </c>
+      <c r="B44">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
         <v>26</v>
       </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>-26.747253575759949</v>
-      </c>
-      <c r="I44">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K44" t="s">
-        <v>27</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
       <c r="M44" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="4">
-        <f>1/(450000*8760*25)</f>
-        <v>1.0147133434804668E-11</v>
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <f>20/1000</f>
+        <v>0.02</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
         <v>26</v>
       </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45">
-        <v>-26.747253575759949</v>
-      </c>
-      <c r="I45">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
       <c r="M45" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <f>8.12/1000</f>
+        <v>8.1199999999999987E-3</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
         <v>26</v>
       </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K46" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
       <c r="M46" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B47">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="C47" t="s">
-        <v>40</v>
+        <f>0.343/1000</f>
+        <v>3.4300000000000004E-4</v>
       </c>
       <c r="D47" t="s">
         <v>29</v>
       </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
       <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="M47" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>41</v>
+        <f>0.0006/1000</f>
+        <v>5.9999999999999997E-7</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
-      </c>
-      <c r="M48" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <f>20/1000</f>
-        <v>0.02</v>
-      </c>
-      <c r="C49" t="s">
-        <v>41</v>
+        <f>0.004/1000</f>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="D49" t="s">
         <v>29</v>
       </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="M49" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <f>8.12/1000</f>
-        <v>8.1199999999999987E-3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>3</v>
+        <f>7.182/1000</f>
+        <v>7.182E-3</v>
       </c>
       <c r="D50" t="s">
         <v>29</v>
       </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
       <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="M50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <f>0.343/1000</f>
-        <v>3.4300000000000004E-4</v>
+        <f>0.005/1000</f>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="D51" t="s">
         <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <f>0.0006/1000</f>
-        <v>5.9999999999999997E-7</v>
+        <f>0.16/1000</f>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D52" t="s">
         <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <f>0.004/1000</f>
-        <v>3.9999999999999998E-6</v>
+        <f>0.03/1000</f>
+        <v>2.9999999999999997E-5</v>
       </c>
       <c r="D53" t="s">
         <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54">
-        <f>7.182/1000</f>
-        <v>7.182E-3</v>
+        <v>52</v>
+      </c>
+      <c r="B54" s="4">
+        <f>1.81*B43*0.1</f>
+        <v>0.185887</v>
       </c>
       <c r="D54" t="s">
         <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <f>0.005/1000</f>
-        <v>5.0000000000000004E-6</v>
+        <f>(20+28.75+91.6)/1000*-1</f>
+        <v>-0.14035</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
       </c>
       <c r="D55" t="s">
         <v>29</v>
       </c>
-      <c r="E55" t="s">
-        <v>47</v>
-      </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="M55" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56">
-        <f>0.16/1000</f>
-        <v>1.6000000000000001E-4</v>
+        <v>58</v>
+      </c>
+      <c r="B56" s="4">
+        <f>1.81*B43*0.9</f>
+        <v>1.6729829999999999</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
       </c>
       <c r="D56" t="s">
         <v>29</v>
       </c>
-      <c r="E56" t="s">
-        <v>47</v>
-      </c>
       <c r="F56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57">
-        <f>0.03/1000</f>
-        <v>2.9999999999999997E-5</v>
-      </c>
-      <c r="D57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="5">
-        <f>1.81*B47*0.1</f>
-        <v>0.185887</v>
-      </c>
-      <c r="D58" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59">
-        <f>(20+28.75+91.6)/1000*-1</f>
-        <v>-0.14035</v>
-      </c>
-      <c r="C59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" t="s">
         <v>26</v>
       </c>
-      <c r="M59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="5">
-        <f>1.81*B47*0.9</f>
-        <v>1.6729829999999999</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="M60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73" t="s">
-        <v>18</v>
-      </c>
-      <c r="K73" t="s">
-        <v>19</v>
-      </c>
-      <c r="L73" t="s">
-        <v>20</v>
-      </c>
-      <c r="M73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="J74">
-        <v>100</v>
-      </c>
-      <c r="K74" t="s">
-        <v>23</v>
-      </c>
-      <c r="M74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75" s="4">
-        <f>1/(450000*8760*25)</f>
-        <v>1.0147133434804668E-11</v>
-      </c>
-      <c r="C75" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" t="s">
-        <v>25</v>
-      </c>
-      <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75">
-        <v>2</v>
-      </c>
-      <c r="H75">
-        <v>-26.747253575759949</v>
-      </c>
-      <c r="I75">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K75" t="s">
-        <v>27</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" s="4">
-        <f>1/(450000*8760*25)</f>
-        <v>1.0147133434804668E-11</v>
-      </c>
-      <c r="C76" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76">
-        <v>2</v>
-      </c>
-      <c r="H76">
-        <v>-26.747253575759949</v>
-      </c>
-      <c r="I76">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K76" t="s">
-        <v>27</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77">
-        <v>2</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K77" t="s">
-        <v>27</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>38</v>
-      </c>
-      <c r="B78">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="C78" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78" t="s">
-        <v>26</v>
-      </c>
-      <c r="M78" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>41</v>
-      </c>
-      <c r="D79" t="s">
-        <v>36</v>
-      </c>
-      <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="M79" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>42</v>
-      </c>
-      <c r="B80">
-        <f>20/1000</f>
-        <v>0.02</v>
-      </c>
-      <c r="C80" t="s">
-        <v>41</v>
-      </c>
-      <c r="D80" t="s">
-        <v>29</v>
-      </c>
-      <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="M80" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81">
-        <f>8.12/1000</f>
-        <v>8.1199999999999987E-3</v>
-      </c>
-      <c r="C81" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="M81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>46</v>
-      </c>
-      <c r="B82">
-        <f>0.343/1000</f>
-        <v>3.4300000000000004E-4</v>
-      </c>
-      <c r="D82" t="s">
-        <v>29</v>
-      </c>
-      <c r="E82" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>48</v>
-      </c>
-      <c r="B83">
-        <f>0.0006/1000</f>
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="D83" t="s">
-        <v>29</v>
-      </c>
-      <c r="E83" t="s">
-        <v>47</v>
-      </c>
-      <c r="F83" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>49</v>
-      </c>
-      <c r="B84">
-        <f>0.004/1000</f>
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="D84" t="s">
-        <v>29</v>
-      </c>
-      <c r="E84" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>50</v>
-      </c>
-      <c r="B85">
-        <f>7.182/1000</f>
-        <v>7.182E-3</v>
-      </c>
-      <c r="D85" t="s">
-        <v>29</v>
-      </c>
-      <c r="E85" t="s">
-        <v>47</v>
-      </c>
-      <c r="F85" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>51</v>
-      </c>
-      <c r="B86">
-        <f>0.005/1000</f>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="D86" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" t="s">
-        <v>47</v>
-      </c>
-      <c r="F86" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>52</v>
-      </c>
-      <c r="B87">
-        <f>0.16/1000</f>
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="D87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" t="s">
-        <v>47</v>
-      </c>
-      <c r="F87" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88">
-        <f>0.03/1000</f>
-        <v>2.9999999999999997E-5</v>
-      </c>
-      <c r="D88" t="s">
-        <v>29</v>
-      </c>
-      <c r="E88" t="s">
-        <v>47</v>
-      </c>
-      <c r="F88" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>54</v>
-      </c>
-      <c r="B89" s="5">
-        <f>1.81*B78*0.1</f>
-        <v>0.185887</v>
-      </c>
-      <c r="D89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" t="s">
-        <v>47</v>
-      </c>
-      <c r="F89" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>56</v>
-      </c>
-      <c r="B90">
-        <f>(20+28.75+91.6)/1000*-1</f>
-        <v>-0.14035</v>
-      </c>
-      <c r="C90" t="s">
-        <v>40</v>
-      </c>
-      <c r="D90" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" t="s">
-        <v>26</v>
-      </c>
-      <c r="M90" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>64</v>
-      </c>
-      <c r="B91" s="5">
-        <f>1.81*B78*0.9</f>
-        <v>1.6729829999999999</v>
-      </c>
-      <c r="C91" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" t="s">
-        <v>26</v>
-      </c>
-      <c r="M91" t="s">
-        <v>64</v>
+      <c r="M56" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-BIGCC.xlsx
+++ b/premise/data/additional_inventories/lci-BIGCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7C29E3-4FF2-ED42-857E-3EAB9C7A3DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B02993A-F2B1-A747-A49B-1BBCC5E78CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30160" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,18 +215,18 @@
     <t>electricity production, at biomass-fired IGCC power plant, pre, pipeline 200km, storage 1000m</t>
   </si>
   <si>
-    <t>The study is originally tailored to portuguese conditions, using Portugal-grown eucalyptus as biommas feedstock. The plant has a power output of 12.5 MW.
-The construciton, maintenance and operation of the plant are not from this study, but from Volkart et la, 2013. The required amounts for those have been adjusted to 12.5 MW.
-All the inventory data regarding the RFB direct gasification process were obtained from experiments carried out in a pilot-scale gasification installation running at the University of Aveiro, Portugal (Pio et al., 2017). However, data are scaled up in order to obtain the same power output of the EG-CRC power plant. At the pilot scale, the RFB is introduced in the gasification chamber by means of a screw feeder and is converted at an average temperature of 785 °C in a bubbling fluidized bed reactor of 80 kWth, operated at atmospheric pressure and under auto-thermal regime, thus, direct gasification using atmospheric air. Note that this study considers an electricial efficiency of 19%, which is very low compared to the rest of the literature. We scaled up this efficiency to 35%, a central estimate when considering other studies: Carpentieri et al. (2005), Puy et al. (2010), Siegl et al. (2011), Guest et al. (2011), Steubing et al. (2011), Nguyen et al. (2013), Jäppinen et al. (2014), Wang et al. (2014), Paengjuntuek et al. (2015), Cambero et al. (2015), Yang et al. (2018) and Zang et al. (2020).</t>
-  </si>
-  <si>
     <t>Andrei Briones-Hidrovo, José Copa, Luís A.C. Tarelho, Cátia Gonçalves, Tamíris Pacheco da Costa, Ana Cláudia Dias, Environmental and energy performance of residual forest biomass for electricity generation: Gasification vs. combustion, Journal of Cleaner Production, Volume 289, 2021, 125680, ISSN 0959-6526, https://doi.org/10.1016/j.jclepro.2020.125680.</t>
   </si>
   <si>
-    <t>The study is originally tailored to portuguese conditions, using Portugal-grown eucalyptus as biommas feedstock. The plant has a power output of 12.5 MW.
+    <t>The study is originally tailored to portuguese conditions, using Portugal-grown eucalyptus as biomass feedstock. The plant has a power output of 12.5 MW.
 Also, the original study does not include CCS. This is added from Volkart et al, 2013.
 The construction, maintenance and operation of the plant are not from this study, but from Volkart et la, 2013. The required amounts for those have been adjusted to 12.5 MW.
 All the inventory data regarding the RFB direct gasification process were obtained from experiments carried out in a pilot-scale gasification installation running at the University of Aveiro, Portugal (Pio et al., 2017). However, data are scaled up in order to obtain the same power output of the EG-CRC power plant. At the pilot scale, the RFB is introduced in the gasification chamber by means of a screw feeder and is converted at an average temperature of 785 °C in a bubbling fluidized bed reactor of 80 kWth, operated at atmospheric pressure and under auto-thermal regime, thus, direct gasification using atmospheric air. Note that this study considers an electricial efficiency of 19%, which is very low compared to the rest of the literature. We scaled up this efficiency to 35%, a central estimate when considering other studies: Carpentieri et al. (2005), Puy et al. (2010), Siegl et al. (2011), Guest et al. (2011), Steubing et al. (2011), Nguyen et al. (2013), Jäppinen et al. (2014), Wang et al. (2014), Paengjuntuek et al. (2015), Cambero et al. (2015), Yang et al. (2018) and Zang et al. (2020). And then, we reduce the efficiency by approximately 10% (ie.., 30% eff.) to reflect the addendum of a CCS unit.</t>
+  </si>
+  <si>
+    <t>The study is originally tailored to portuguese conditions, using Portugal-grown eucalyptus as biomass feedstock. The plant has a power output of 12.5 MW.
+The construciton, maintenance and operation of the plant are not from this study, but from Volkart et la, 2013. The required amounts for those have been adjusted to 12.5 MW.
+All the inventory data regarding the RFB direct gasification process were obtained from experiments carried out in a pilot-scale gasification installation running at the University of Aveiro, Portugal (Pio et al., 2017). However, data are scaled up in order to obtain the same power output of the EG-CRC power plant. At the pilot scale, the RFB is introduced in the gasification chamber by means of a screw feeder and is converted at an average temperature of 785 °C in a bubbling fluidized bed reactor of 80 kWth, operated at atmospheric pressure and under auto-thermal regime, thus, direct gasification using atmospheric air. Note that this study considers an electricial efficiency of 19%, which is very low compared to the rest of the literature. We scaled up this efficiency to 35%, a central estimate when considering other studies: Carpentieri et al. (2005), Puy et al. (2010), Siegl et al. (2011), Guest et al. (2011), Steubing et al. (2011), Nguyen et al. (2013), Jäppinen et al. (2014), Wang et al. (2014), Paengjuntuek et al. (2015), Cambero et al. (2015), Yang et al. (2018) and Zang et al. (2020).</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -288,8 +288,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,8 +650,8 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>59</v>
+      <c r="B10" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -811,7 +811,7 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>(3.6/35%)/20</f>
         <v>0.51428571428571435</v>
       </c>
@@ -1108,15 +1108,15 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>61</v>
+      <c r="B37" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1276,7 +1276,7 @@
       <c r="A43" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <f>(3.6/30%)/20</f>
         <v>0.6</v>
       </c>
